--- a/NEW HR/DONE/PAMAT, CELESTINA.xlsx
+++ b/NEW HR/DONE/PAMAT, CELESTINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC12EF-B5A8-4FDA-A5E9-F65967991E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -192,11 +191,23 @@
   <si>
     <t>12/22,26,27,28,29</t>
   </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 5/19/2023</t>
+  </si>
+  <si>
+    <t>GSO</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -572,15 +583,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -593,11 +595,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,7 +1305,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1348,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1412,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1472,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1538,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1601,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1699,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1758,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1823,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1866,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1941,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2127,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2193,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2251,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2317,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2373,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2448,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2491,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2557,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2613,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2711,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2774,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,25 +2840,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2859,25 +2870,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2889,13 +2900,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2904,14 +2915,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3215,7 +3226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3225,7 +3236,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3233,34 +3244,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A61" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F55" activeCellId="1" sqref="K55 F55"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3272,34 +3283,36 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="49" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3310,16 +3323,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3327,7 +3342,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3340,24 +3355,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +3407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3401,7 +3416,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>38.75</v>
+        <v>42.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3411,12 +3426,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>53.75</v>
+        <v>57.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3434,7 +3449,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3454,7 +3469,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3474,7 +3489,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3494,7 +3509,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3514,7 +3529,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3534,7 +3549,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3554,7 +3569,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3572,7 +3587,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3592,7 +3607,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3612,7 +3627,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3632,7 +3647,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3652,7 +3667,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3672,7 +3687,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3692,7 +3707,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3712,7 +3727,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3732,7 +3747,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3752,7 +3767,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3772,7 +3787,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3792,7 +3807,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3816,7 +3831,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3834,7 +3849,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3854,7 +3869,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3874,7 +3889,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3894,7 +3909,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3914,7 +3929,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3934,7 +3949,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3954,7 +3969,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3974,7 +3989,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -3994,7 +4009,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -4014,7 +4029,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -4034,7 +4049,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -4054,7 +4069,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44531</v>
       </c>
@@ -4078,7 +4093,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>45</v>
       </c>
@@ -4096,7 +4111,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44562</v>
       </c>
@@ -4116,7 +4131,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44593</v>
       </c>
@@ -4136,7 +4151,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44621</v>
       </c>
@@ -4156,7 +4171,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44652</v>
       </c>
@@ -4176,7 +4191,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44682</v>
       </c>
@@ -4196,7 +4211,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44713</v>
       </c>
@@ -4216,7 +4231,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44743</v>
       </c>
@@ -4236,7 +4251,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44774</v>
       </c>
@@ -4256,7 +4271,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44805</v>
       </c>
@@ -4276,7 +4291,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44835</v>
       </c>
@@ -4296,7 +4311,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44866</v>
       </c>
@@ -4316,7 +4331,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44896</v>
       </c>
@@ -4342,7 +4357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>46</v>
       </c>
@@ -4360,7 +4375,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44927</v>
       </c>
@@ -4380,57 +4395,73 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>44958</v>
+      </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>44986</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>45017</v>
+      </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
@@ -4442,9 +4473,11 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4460,7 +4493,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4476,7 +4509,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4492,7 +4525,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4508,7 +4541,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4524,7 +4557,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4540,7 +4573,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4556,7 +4589,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4572,7 +4605,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4588,7 +4621,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4604,7 +4637,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4620,7 +4653,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4636,7 +4669,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4652,7 +4685,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4668,7 +4701,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4684,7 +4717,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4700,7 +4733,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4716,7 +4749,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4732,7 +4765,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4748,7 +4781,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4764,7 +4797,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4780,7 +4813,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4796,7 +4829,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4812,7 +4845,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4828,7 +4861,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4844,7 +4877,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4860,7 +4893,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4876,7 +4909,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4892,7 +4925,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4908,7 +4941,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4924,7 +4957,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4940,7 +4973,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4956,7 +4989,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4972,7 +5005,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4988,7 +5021,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5004,7 +5037,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5020,7 +5053,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5036,7 +5069,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5052,7 +5085,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5068,7 +5101,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5084,7 +5117,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5100,7 +5133,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5116,7 +5149,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5132,7 +5165,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5148,7 +5181,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5164,7 +5197,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5180,7 +5213,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5196,7 +5229,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5212,7 +5245,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5228,7 +5261,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5244,7 +5277,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5260,7 +5293,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5276,7 +5309,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5292,7 +5325,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -5310,23 +5343,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5349,34 +5382,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5389,40 +5422,40 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="49" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
-        <v/>
+        <v>ADMIN AIDE I</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5434,19 +5467,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>GSO</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5454,7 +5487,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5467,24 +5500,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5519,7 +5552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5543,7 +5576,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -5563,7 +5596,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -5579,7 +5612,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5595,7 +5628,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5611,7 +5644,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5627,7 +5660,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5643,7 +5676,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -5659,7 +5692,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5675,7 +5708,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5691,7 +5724,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5707,7 +5740,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5723,7 +5756,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5739,7 +5772,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5755,7 +5788,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5771,7 +5804,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5787,7 +5820,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5803,7 +5836,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5819,7 +5852,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5835,7 +5868,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5851,7 +5884,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5867,7 +5900,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5883,7 +5916,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5899,7 +5932,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5915,7 +5948,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5931,7 +5964,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5947,7 +5980,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5963,7 +5996,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5979,7 +6012,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5995,7 +6028,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6011,7 +6044,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6027,7 +6060,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6043,7 +6076,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6059,7 +6092,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6075,7 +6108,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6091,7 +6124,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6107,7 +6140,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6123,7 +6156,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6139,7 +6172,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6155,7 +6188,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6171,7 +6204,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6187,7 +6220,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6203,7 +6236,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6219,7 +6252,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6235,7 +6268,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6251,7 +6284,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6267,7 +6300,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6283,7 +6316,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6299,7 +6332,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6315,7 +6348,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6331,7 +6364,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6347,7 +6380,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6363,7 +6396,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6379,7 +6412,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6395,7 +6428,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6411,7 +6444,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6427,7 +6460,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6443,7 +6476,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6459,7 +6492,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6475,7 +6508,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6491,7 +6524,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6507,7 +6540,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6523,7 +6556,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6539,7 +6572,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6555,7 +6588,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6571,7 +6604,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6587,7 +6620,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6603,7 +6636,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6619,7 +6652,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6635,7 +6668,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6651,7 +6684,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6667,7 +6700,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6683,7 +6716,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6699,7 +6732,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6715,7 +6748,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6731,7 +6764,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6747,7 +6780,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6763,7 +6796,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6779,7 +6812,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6795,7 +6828,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6811,7 +6844,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6827,7 +6860,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6843,7 +6876,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6859,7 +6892,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6875,7 +6908,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6891,7 +6924,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6907,7 +6940,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6923,7 +6956,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6939,7 +6972,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6955,7 +6988,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6971,7 +7004,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6987,7 +7020,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7003,7 +7036,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7019,7 +7052,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7035,7 +7068,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7051,7 +7084,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7067,7 +7100,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7083,7 +7116,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7099,7 +7132,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7115,7 +7148,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7131,7 +7164,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7147,7 +7180,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7163,7 +7196,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7179,7 +7212,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7195,7 +7228,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7211,7 +7244,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7227,7 +7260,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7243,7 +7276,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7259,7 +7292,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7275,7 +7308,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7291,7 +7324,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7307,7 +7340,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7323,7 +7356,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7339,7 +7372,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7355,7 +7388,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7371,7 +7404,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7387,7 +7420,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7403,7 +7436,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7419,7 +7452,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7435,7 +7468,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7451,7 +7484,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7467,7 +7500,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7498,10 +7531,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7524,7 +7557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7532,21 +7565,21 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7559,7 +7592,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7588,7 +7621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -7608,17 +7641,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7639,7 +7672,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7666,7 +7699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7692,7 +7725,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7718,7 +7751,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7744,7 +7777,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7770,7 +7803,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7796,7 +7829,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7822,7 +7855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7848,7 +7881,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7868,7 +7901,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7888,7 +7921,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7908,7 +7941,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7929,7 +7962,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7950,7 +7983,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7971,7 +8004,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7992,7 +8025,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8013,7 +8046,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8034,7 +8067,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8055,7 +8088,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8076,7 +8109,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8097,7 +8130,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8118,7 +8151,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8139,7 +8172,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8160,7 +8193,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8181,7 +8214,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8202,7 +8235,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8223,7 +8256,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8265,7 +8298,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8286,7 +8319,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8307,7 +8340,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8328,7 +8361,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8337,7 +8370,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8346,7 +8379,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8355,7 +8388,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8364,7 +8397,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8373,7 +8406,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8382,7 +8415,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8391,7 +8424,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8400,7 +8433,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8409,7 +8442,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8418,7 +8451,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8427,7 +8460,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8436,7 +8469,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8445,7 +8478,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8454,7 +8487,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8463,7 +8496,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8472,7 +8505,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8481,7 +8514,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8490,7 +8523,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8499,7 +8532,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8508,7 +8541,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8517,7 +8550,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8526,7 +8559,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8535,7 +8568,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8544,7 +8577,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8553,7 +8586,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8562,7 +8595,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8571,7 +8604,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8580,7 +8613,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8589,7 +8622,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/PAMAT, CELESTINA.xlsx
+++ b/NEW HR/DONE/PAMAT, CELESTINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/17-19/2023</t>
   </si>
 </sst>
 </file>
@@ -583,6 +589,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -595,20 +610,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,7 +1311,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1354,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1418,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1478,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1544,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1607,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1705,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1764,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1829,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1872,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1947,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2133,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2257,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2323,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2379,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2454,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2497,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2563,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2619,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2717,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2780,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3259,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,14 +3289,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3303,14 +3309,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3323,16 +3329,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3358,18 +3364,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3416,7 +3422,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3426,7 +3432,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4462,13 +4468,15 @@
       <c r="B61" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4478,15 +4486,19 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45078</v>
+      </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4494,10 +4506,16 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>3</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -4507,7 +4525,9 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
@@ -5343,17 +5363,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5422,14 +5442,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5443,17 +5463,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5467,17 +5487,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>GSO</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5503,18 +5523,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/PAMAT, CELESTINA.xlsx
+++ b/NEW HR/DONE/PAMAT, CELESTINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73339951-38D4-49CB-BE31-687437DEFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -212,11 +213,17 @@
   <si>
     <t>12/18-22/2023</t>
   </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -592,6 +599,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -604,20 +620,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,7 +1321,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1364,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1428,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1488,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1554,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1617,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1715,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1774,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1839,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1882,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1957,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2143,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2209,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2267,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2333,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2389,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2464,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2507,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2573,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2629,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2727,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2790,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2839,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2849,25 +2856,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2879,25 +2886,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2909,13 +2916,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2924,14 +2931,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3235,7 +3242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3245,7 +3252,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3253,34 +3260,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3292,16 +3299,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3312,16 +3319,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3332,18 +3339,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3351,7 +3358,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3364,24 +3371,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3425,7 +3432,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>43.25</v>
+        <v>45.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3435,12 +3442,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>66.25</v>
+        <v>68.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3458,7 +3465,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3478,7 +3485,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3498,7 +3505,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3518,7 +3525,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3538,7 +3545,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3558,7 +3565,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3578,7 +3585,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3616,7 +3623,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3636,7 +3643,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3656,7 +3663,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3676,7 +3683,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3696,7 +3703,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3716,7 +3723,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3736,7 +3743,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3756,7 +3763,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3776,7 +3783,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3796,7 +3803,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3816,7 +3823,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3840,7 +3847,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>44</v>
       </c>
@@ -3858,7 +3865,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3878,7 +3885,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3898,7 +3905,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3918,7 +3925,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3938,7 +3945,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3958,7 +3965,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3978,7 +3985,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3998,7 +4005,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -4018,7 +4025,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -4038,7 +4045,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -4058,7 +4065,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -4078,7 +4085,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44531</v>
       </c>
@@ -4102,7 +4109,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>45</v>
       </c>
@@ -4120,7 +4127,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44562</v>
       </c>
@@ -4140,7 +4147,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44593</v>
       </c>
@@ -4160,7 +4167,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44621</v>
       </c>
@@ -4180,7 +4187,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44652</v>
       </c>
@@ -4200,7 +4207,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44682</v>
       </c>
@@ -4220,7 +4227,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44713</v>
       </c>
@@ -4240,7 +4247,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44743</v>
       </c>
@@ -4260,7 +4267,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44774</v>
       </c>
@@ -4280,7 +4287,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44805</v>
       </c>
@@ -4300,7 +4307,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44835</v>
       </c>
@@ -4320,7 +4327,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44866</v>
       </c>
@@ -4340,7 +4347,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44896</v>
       </c>
@@ -4366,7 +4373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>46</v>
       </c>
@@ -4384,7 +4391,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44927</v>
       </c>
@@ -4404,7 +4411,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44958</v>
       </c>
@@ -4424,7 +4431,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44986</v>
       </c>
@@ -4444,7 +4451,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>45017</v>
       </c>
@@ -4464,7 +4471,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>45047</v>
       </c>
@@ -4488,7 +4495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>45078</v>
       </c>
@@ -4508,7 +4515,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>45108</v>
       </c>
@@ -4534,7 +4541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>45139</v>
       </c>
@@ -4554,7 +4561,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>45170</v>
       </c>
@@ -4574,7 +4581,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>45200</v>
       </c>
@@ -4594,7 +4601,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45231</v>
       </c>
@@ -4614,22 +4621,24 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45261</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39">
         <v>5</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4638,8 +4647,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>59</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4654,23 +4665,27 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <v>45322</v>
+      </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4686,7 +4701,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4702,7 +4717,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4718,7 +4733,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4734,7 +4749,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4750,7 +4765,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4766,7 +4781,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4782,7 +4797,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4798,7 +4813,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4814,7 +4829,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4830,7 +4845,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4846,7 +4861,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4862,7 +4877,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4878,7 +4893,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4894,7 +4909,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4910,7 +4925,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4926,7 +4941,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4942,7 +4957,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4958,7 +4973,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4974,7 +4989,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4990,7 +5005,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5006,7 +5021,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5022,7 +5037,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5038,7 +5053,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5054,7 +5069,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5070,7 +5085,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5086,7 +5101,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5102,7 +5117,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5118,7 +5133,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5134,7 +5149,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5150,7 +5165,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5166,7 +5181,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5182,7 +5197,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5198,7 +5213,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5214,7 +5229,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5230,7 +5245,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5246,7 +5261,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5262,7 +5277,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5278,7 +5293,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5294,7 +5309,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5310,7 +5325,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5326,7 +5341,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5342,7 +5357,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5358,7 +5373,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5374,7 +5389,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -5392,23 +5407,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5431,34 +5446,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5471,16 +5486,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5492,19 +5507,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5516,19 +5531,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>GSO</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5536,7 +5551,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5549,24 +5564,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5625,7 +5640,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -5645,7 +5660,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -5661,7 +5676,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5677,7 +5692,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5693,7 +5708,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5709,7 +5724,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5725,7 +5740,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -5741,7 +5756,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5757,7 +5772,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5773,7 +5788,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5789,7 +5804,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5805,7 +5820,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5821,7 +5836,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5837,7 +5852,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5853,7 +5868,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5869,7 +5884,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5885,7 +5900,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5901,7 +5916,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5917,7 +5932,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5933,7 +5948,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5949,7 +5964,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5965,7 +5980,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5981,7 +5996,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5997,7 +6012,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6013,7 +6028,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6029,7 +6044,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6045,7 +6060,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6061,7 +6076,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6077,7 +6092,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6093,7 +6108,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6109,7 +6124,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6125,7 +6140,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6141,7 +6156,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6157,7 +6172,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6173,7 +6188,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6189,7 +6204,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6205,7 +6220,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6221,7 +6236,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6237,7 +6252,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6253,7 +6268,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6269,7 +6284,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6285,7 +6300,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6301,7 +6316,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6317,7 +6332,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6333,7 +6348,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6349,7 +6364,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6365,7 +6380,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6381,7 +6396,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6397,7 +6412,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6413,7 +6428,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6429,7 +6444,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6445,7 +6460,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6461,7 +6476,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6477,7 +6492,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6493,7 +6508,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6509,7 +6524,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6525,7 +6540,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6541,7 +6556,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6557,7 +6572,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6573,7 +6588,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6589,7 +6604,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6605,7 +6620,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6621,7 +6636,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6637,7 +6652,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6653,7 +6668,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6669,7 +6684,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6685,7 +6700,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6701,7 +6716,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6717,7 +6732,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6733,7 +6748,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6749,7 +6764,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6765,7 +6780,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6781,7 +6796,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6797,7 +6812,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6813,7 +6828,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6829,7 +6844,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6845,7 +6860,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6861,7 +6876,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6877,7 +6892,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6893,7 +6908,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6909,7 +6924,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6925,7 +6940,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6941,7 +6956,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6957,7 +6972,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6973,7 +6988,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6989,7 +7004,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7005,7 +7020,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7021,7 +7036,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7037,7 +7052,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7053,7 +7068,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7069,7 +7084,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7085,7 +7100,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7101,7 +7116,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7117,7 +7132,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7133,7 +7148,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7149,7 +7164,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7165,7 +7180,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7181,7 +7196,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7197,7 +7212,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7213,7 +7228,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7229,7 +7244,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7245,7 +7260,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7261,7 +7276,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7277,7 +7292,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7293,7 +7308,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7309,7 +7324,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7325,7 +7340,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7341,7 +7356,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7357,7 +7372,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7373,7 +7388,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7389,7 +7404,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7405,7 +7420,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7421,7 +7436,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7437,7 +7452,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7453,7 +7468,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7469,7 +7484,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7485,7 +7500,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7501,7 +7516,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7517,7 +7532,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7533,7 +7548,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7549,7 +7564,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7580,10 +7595,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7606,29 +7621,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7641,7 +7656,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7670,7 +7685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -7690,17 +7705,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7721,7 +7739,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>114.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7748,7 +7770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7774,7 +7796,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7800,7 +7822,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7826,7 +7848,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7852,7 +7874,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7878,7 +7900,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7904,7 +7926,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7930,7 +7952,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7950,7 +7972,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7970,7 +7992,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7990,7 +8012,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8011,7 +8033,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8032,7 +8054,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8053,7 +8075,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8074,7 +8096,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8095,7 +8117,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8116,7 +8138,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8137,7 +8159,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8158,7 +8180,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8179,7 +8201,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8200,7 +8222,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8221,7 +8243,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8242,7 +8264,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8263,7 +8285,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8284,7 +8306,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8305,7 +8327,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8326,7 +8348,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8347,7 +8369,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8368,7 +8390,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8389,7 +8411,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8410,7 +8432,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8419,7 +8441,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8428,7 +8450,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8437,7 +8459,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8446,7 +8468,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8455,7 +8477,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8464,7 +8486,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8473,7 +8495,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8482,7 +8504,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8491,7 +8513,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8500,7 +8522,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8509,7 +8531,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8518,7 +8540,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8527,7 +8549,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8536,7 +8558,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8545,7 +8567,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8554,7 +8576,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8563,7 +8585,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8572,7 +8594,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8581,7 +8603,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8590,7 +8612,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8599,7 +8621,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8608,7 +8630,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8617,7 +8639,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8626,7 +8648,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8635,7 +8657,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8644,7 +8666,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8653,7 +8675,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8662,7 +8684,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8671,7 +8693,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
